--- a/biology/Zoologie/Buse_à_tête_blanche/Buse_à_tête_blanche.xlsx
+++ b/biology/Zoologie/Buse_à_tête_blanche/Buse_à_tête_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_t%C3%AAte_blanche</t>
+          <t>Buse_à_tête_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Busarellus nigricollis
-La Buse à tête blanche (Busarellus nigricollis), aussi appelée Busarelle à tête blanche[1], est une espèce de rapaces de la famille des Accipitridae, l'unique représentante du genre Busarellus.
+La Buse à tête blanche (Busarellus nigricollis), aussi appelée Busarelle à tête blanche, est une espèce de rapaces de la famille des Accipitridae, l'unique représentante du genre Busarellus.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_t%C3%AAte_blanche</t>
+          <t>Buse_à_tête_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une buse de grande taille, d'environ 58 cm pour une envergure de 115 à 143 cm et un poids de 700 à 830 g. La tête est blanche avec un col noir sur le devant (d'où son nom de (en) Black-collared Hawk) et le reste du corps couleur rouille, ses ailes sont longues et larges contrairement à la queue, qui est extrêmement courte, le bec est noir.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_t%C3%AAte_blanche</t>
+          <t>Buse_à_tête_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend de la côte ouest du Mexique et la péninsule du Yucatán à l'Uruguay.
 Elle fréquente des zones inférieures à 500 m d'altitude.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_t%C3%AAte_blanche</t>
+          <t>Buse_à_tête_blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après le Congrès ornithologique international (version 5.1, 2015), cette espèce est constituée des deux sous-espèces suivantes :
 Busarellus nigricollis leucocephalus  (Vieillot, 1816)
